--- a/data/trans_dic/P31_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P31_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>42,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>38,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>38,89%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,85; 47,58</t>
+          <t>16,94; 33,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,44; 41,05</t>
+          <t>25,76; 40,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 42,53</t>
+          <t>28,42; 44,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,38; 47,9</t>
+          <t>14,1; 31,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,03; 50,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,52; 45,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,16; 45,05</t>
+          <t>33,63; 50,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,6; 44,95</t>
+          <t>38,59; 50,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,11; 42,33</t>
+          <t>36,63; 47,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 50,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>28,51; 40,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33,86; 43,49</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>34,87; 43,56</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27,04; 40,49</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,4%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>36,24%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,51; 37,31</t>
+          <t>26,8; 41,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 35,55</t>
+          <t>27,31; 37,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,5; 38,99</t>
+          <t>30,5; 39,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,96; 36,12</t>
+          <t>22,66; 34,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,88; 45,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,45; 40,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 34,97</t>
+          <t>27,17; 37,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 38,8</t>
+          <t>36,43; 45,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,57; 38,81</t>
+          <t>33,45; 41,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33,63; 44,04</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28,94; 37,14</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33,26; 40,11</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33,22; 39,43</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>29,52; 37,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>34,21%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>32,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>36,66%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>34,0%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>38,28%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>36,94%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,11; 39,49</t>
+          <t>27,26; 42,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,31; 38,63</t>
+          <t>28,07; 38,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 38,69</t>
+          <t>29,34; 39,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,45; 37,69</t>
+          <t>22,13; 33,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,13; 43,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 38,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 37,16</t>
+          <t>27,9; 37,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,4; 40,03</t>
+          <t>35,4; 44,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,21; 37,08</t>
+          <t>30,33; 38,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33,3; 43,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 38,07</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>33,7; 40,35</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>31,16; 37,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 37,04</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>33,8%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>32,45%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,69</t>
+          <t>27,07; 37,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,07</t>
+          <t>28,26; 39,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,16; 37,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,35; 37,07</t>
+          <t>22,27; 32,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,06; 44,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,0; 39,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 35,89</t>
+          <t>31,25; 39,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,52; 39,19</t>
+          <t>37,75; 48,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,59; 37,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32,94; 43,92</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>30,5; 37,32</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>34,05; 42,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>28,66; 36,07</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32,72%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,55%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37,69%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36,15%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29,11; 35,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29,85; 35,55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31,28; 37,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 29,85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,0; 37,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39,44; 44,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35,2; 40,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36,08; 41,77</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31,42; 35,57</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35,26; 38,94</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>34,1; 38,17</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>30,86; 35,15</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83194</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>167084</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>254528</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>101377</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>175867</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>277821</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>376670</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>253317</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>259062</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>444904</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>631198</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>354694</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>57452; 114073</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>133630; 208718</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>207006; 325513</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>61652; 138345</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>141823; 211412</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>241942; 317578</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>327825; 425383</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>201332; 313409</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>216927; 305857</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>387930; 498370</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>566070; 707005</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>286014; 428219</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>309861</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>386302</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>564945</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>292991</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>321460</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>499506</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>567377</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>406697</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>631321</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>885809</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1132322</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>699688</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>248474; 381448</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>328766; 451445</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>494671; 645750</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>238583; 363135</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>271038; 374508</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>446489; 551593</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>502561; 624093</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>356221; 466439</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>557067; 714831</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>807999; 974500</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1037803; 1232036</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>623483; 784802</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>245248</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>279115</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>370527</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>226488</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>252932</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>380450</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>397925</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>337485</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>498180</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>659565</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>768451</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>563973</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>194279; 300719</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>237346; 323278</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>320771; 426402</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>182712; 275774</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>213986; 290393</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>332755; 418643</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>352804; 448517</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>293566; 381101</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>439181; 563418</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>601661; 720472</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>703292; 837630</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>503413; 632359</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>468159</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>288830</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>286026</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>490402</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>327428</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>367925</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>958562</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>616259</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>653952</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>392788; 545261</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>242553; 340047</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>235485; 345042</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>432802; 551601</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>286477; 366523</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>315444; 420626</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>864982; 1058602</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>550724; 684111</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>577505; 726881</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>438.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>676.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>611.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>786.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1049.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>782.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1106462</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1121331</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1190000</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>906882</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1240662</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1485206</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1341971</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1365425</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2347124</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2606537</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2531971</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2272307</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>998464; 1227082</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1022891; 1218356</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1077094; 1298119</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>813175; 1007023</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1142849; 1335784</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1400581; 1574267</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1253234; 1438107</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1269697; 1469962</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2200213; 2490608</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2460487; 2717469</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2388438; 2673855</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>2127085; 2422528</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
